--- a/TopCoder problem archive.xlsx
+++ b/TopCoder problem archive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18700" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Strings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="143">
   <si>
     <t>String Manipulation</t>
   </si>
@@ -567,7 +567,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -612,6 +612,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -698,7 +700,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Comma" xfId="37" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -729,6 +731,7 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -750,6 +753,7 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -828,6 +832,93 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -971,93 +1062,6 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -18853,13 +18857,13 @@
   <tableColumns count="9">
     <tableColumn id="1" name="Name" dataDxfId="18"/>
     <tableColumn id="2" name="Source" dataDxfId="17"/>
-    <tableColumn id="5" name="Topic" dataDxfId="11"/>
-    <tableColumn id="6" name="Div 1 Level" dataDxfId="10"/>
-    <tableColumn id="7" name="Div 1 Success Rate" dataDxfId="9"/>
-    <tableColumn id="16385" name="Done" dataDxfId="8"/>
-    <tableColumn id="3" name="Start" dataDxfId="7"/>
-    <tableColumn id="4" name="End" dataDxfId="6"/>
-    <tableColumn id="16388" name="Time" dataDxfId="5">
+    <tableColumn id="5" name="Topic" dataDxfId="16"/>
+    <tableColumn id="6" name="Div 1 Level" dataDxfId="15"/>
+    <tableColumn id="7" name="Div 1 Success Rate" dataDxfId="14"/>
+    <tableColumn id="16385" name="Done" dataDxfId="13"/>
+    <tableColumn id="3" name="Start" dataDxfId="12"/>
+    <tableColumn id="4" name="End" dataDxfId="11"/>
+    <tableColumn id="16388" name="Time" dataDxfId="10">
       <calculatedColumnFormula>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18868,16 +18872,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I25" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I25" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:I25"/>
   <sortState ref="A2:K26">
     <sortCondition descending="1" ref="E1:E26"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="15"/>
-    <tableColumn id="2" name="Source" dataDxfId="14"/>
-    <tableColumn id="3" name="Topic" dataDxfId="13"/>
-    <tableColumn id="4" name="Div 1 Level" dataDxfId="12"/>
+    <tableColumn id="1" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" name="Source" dataDxfId="7"/>
+    <tableColumn id="3" name="Topic" dataDxfId="6"/>
+    <tableColumn id="4" name="Div 1 Level" dataDxfId="5"/>
     <tableColumn id="5" name="Div 1 Success Rate" dataDxfId="4"/>
     <tableColumn id="8" name="Done" dataDxfId="3"/>
     <tableColumn id="9" name="Start" dataDxfId="2"/>
@@ -19853,7 +19857,7 @@
       </c>
       <c r="K1" s="8">
         <f>COUNTIF(Table2[Done], "Y")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L1" s="8">
         <f>COUNTIF(Table2[Div 1 Level], 1)</f>
@@ -19885,7 +19889,7 @@
       </c>
       <c r="K2" s="4">
         <f>K1/L1</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18">
@@ -19913,7 +19917,7 @@
       </c>
       <c r="K3" s="14">
         <f>AVERAGE(Table2[Time])</f>
-        <v>56.75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -20199,10 +20203,19 @@
       <c r="E15" s="3">
         <v>0.93079999999999996</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="29"/>
+      <c r="F15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0.78125</v>
+      </c>
+      <c r="H15" s="24">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="I15" s="21">
+        <f>(HOUR(Table2[[#This Row],[End]])-HOUR(Table2[[#This Row],[Start]]))*60 + MINUTE(Table2[[#This Row],[End]]) - MINUTE(Table2[[#This Row],[Start]])</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">

--- a/TopCoder problem archive.xlsx
+++ b/TopCoder problem archive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18700" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19940" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Strings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
   <si>
     <t>String Manipulation</t>
   </si>
@@ -567,7 +567,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -612,6 +612,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -700,7 +702,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="57">
     <cellStyle name="Comma" xfId="37" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -732,6 +734,7 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -754,6 +757,7 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -19807,8 +19811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19857,7 +19861,7 @@
       </c>
       <c r="K1" s="8">
         <f>COUNTIF(Table2[Done], "Y")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L1" s="8">
         <f>COUNTIF(Table2[Div 1 Level], 1)</f>
@@ -19889,7 +19893,7 @@
       </c>
       <c r="K2" s="4">
         <f>K1/L1</f>
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18">
@@ -19917,7 +19921,7 @@
       </c>
       <c r="K3" s="14">
         <f>AVERAGE(Table2[Time])</f>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -20089,10 +20093,19 @@
       <c r="E10" s="3">
         <v>0.94679999999999997</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="29"/>
+      <c r="F10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.87916666666666676</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.8930555555555556</v>
+      </c>
+      <c r="I10" s="21">
+        <f>(HOUR(Table2[[#This Row],[End]])-HOUR(Table2[[#This Row],[Start]]))*60 + MINUTE(Table2[[#This Row],[End]]) - MINUTE(Table2[[#This Row],[Start]])</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">

--- a/TopCoder problem archive.xlsx
+++ b/TopCoder problem archive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19940" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Strings" sheetId="1" r:id="rId1"/>
@@ -19811,8 +19811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/TopCoder problem archive.xlsx
+++ b/TopCoder problem archive.xlsx
@@ -4,15 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="280" yWindow="0" windowWidth="28480" windowHeight="16060" tabRatio="607" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Strings" sheetId="1" r:id="rId1"/>
-    <sheet name="Graph Theory &amp; Greedy" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Table of Contents" sheetId="4" r:id="rId1"/>
+    <sheet name="Strings" sheetId="1" r:id="rId2"/>
+    <sheet name="Graph" sheetId="2" r:id="rId3"/>
+    <sheet name="Recursion" sheetId="6" r:id="rId4"/>
+    <sheet name="Soring and Searching" sheetId="7" r:id="rId5"/>
+    <sheet name="Brute Force" sheetId="3" r:id="rId6"/>
+    <sheet name="Math" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Strings!$A$2:$E$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Strings!$A$2:$E$22</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="219">
   <si>
     <t>String Manipulation</t>
   </si>
@@ -171,9 +175,6 @@
   </si>
   <si>
     <t>Div 1 Success Rate</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Completed</t>
@@ -454,24 +455,246 @@
   <si>
     <t>SRM 521</t>
   </si>
+  <si>
+    <t>There is a genius solution. Just remove all the numbers with the bit at the position blank</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String Manipulation </t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Theory </t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+  <si>
+    <t>Simple Search, Iteration</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math </t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Recursion and Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>TopCoder</t>
+  </si>
+  <si>
+    <t>Gayle McDowell</t>
+  </si>
+  <si>
+    <t>Arrays and Strings</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>Linked Lists</t>
+  </si>
+  <si>
+    <t>Stacks and Queues</t>
+  </si>
+  <si>
+    <t>Trees and Graphs</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Brain Teasers</t>
+  </si>
+  <si>
+    <t>Mathematics and Probability</t>
+  </si>
+  <si>
+    <t>Scalability and Memory Limits</t>
+  </si>
+  <si>
+    <t>Sorting and Searching</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>BalancedTrees</t>
+  </si>
+  <si>
+    <t>TCO '03 Finals</t>
+  </si>
+  <si>
+    <t>InverseHaar1D</t>
+  </si>
+  <si>
+    <t>SRM 275</t>
+  </si>
+  <si>
+    <t>Recursion, Simulation</t>
+  </si>
+  <si>
+    <t>MatchCounts</t>
+  </si>
+  <si>
+    <t>TCCC06 Round 2A</t>
+  </si>
+  <si>
+    <t>Alignment</t>
+  </si>
+  <si>
+    <t>TCO06 Semi 2</t>
+  </si>
+  <si>
+    <t>CodeSet</t>
+  </si>
+  <si>
+    <t>TCCC06 Semi 3</t>
+  </si>
+  <si>
+    <t>EventOrder</t>
+  </si>
+  <si>
+    <t>TCO11 Wildcard Round</t>
+  </si>
+  <si>
+    <t>MakeUnique</t>
+  </si>
+  <si>
+    <t>TCO '03 Semifinals 3</t>
+  </si>
+  <si>
+    <t>Dynamic Programming, String Manipulation</t>
+  </si>
+  <si>
+    <t>PlankTiling</t>
+  </si>
+  <si>
+    <t>TCO 2014 Semifinal 2</t>
+  </si>
+  <si>
+    <t>Dynamic Programming, Simple Math</t>
+  </si>
+  <si>
+    <t>RunLengthPlus</t>
+  </si>
+  <si>
+    <t>TCCC05 Wildcard</t>
+  </si>
+  <si>
+    <t>Dynamic Programming, Encryption/Compression, String Manipulation</t>
+  </si>
+  <si>
+    <t>SequencePermutation</t>
+  </si>
+  <si>
+    <t>TCO10 Wildcard</t>
+  </si>
+  <si>
+    <t>PrimeSoccer</t>
+  </si>
+  <si>
+    <t>SRM 422</t>
+  </si>
+  <si>
+    <t>Dynamic Programming, Math</t>
+  </si>
+  <si>
+    <t>BankLottery</t>
+  </si>
+  <si>
+    <t>TCO10 Round 4</t>
+  </si>
+  <si>
+    <t>NumberofFiboCalls</t>
+  </si>
+  <si>
+    <t>SRM 352</t>
+  </si>
+  <si>
+    <t>IncrementAndDoubling</t>
+  </si>
+  <si>
+    <t>SRM 596</t>
+  </si>
+  <si>
+    <t>RandomPancakeStack</t>
+  </si>
+  <si>
+    <t>SRM 656</t>
+  </si>
+  <si>
+    <t>BadNeighbors</t>
+  </si>
+  <si>
+    <t>TCCC '04 Round 4</t>
+  </si>
+  <si>
+    <t>PolishNotation</t>
+  </si>
+  <si>
+    <t>TCO07 Round 4</t>
+  </si>
+  <si>
+    <t>Dynamic Programming, Math, String Manipulation</t>
+  </si>
+  <si>
+    <t>HandsShaking</t>
+  </si>
+  <si>
+    <t>SRM 363</t>
+  </si>
+  <si>
+    <t>Advanced Math, Dynamic Programming</t>
+  </si>
+  <si>
+    <t>RouteIntersection</t>
+  </si>
+  <si>
+    <t>Member Single Round Match 474</t>
+  </si>
+  <si>
+    <t>Dynamic Programming, Encryption/Compression</t>
+  </si>
+  <si>
+    <t>BallRemoval</t>
+  </si>
+  <si>
+    <t>TCO12 Semifinal 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,8 +766,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,8 +788,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -566,144 +803,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="57">
-    <cellStyle name="Comma" xfId="37" builtinId="3"/>
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -722,19 +1004,29 @@
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -752,16 +1044,131 @@
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -785,7 +1192,7 @@
         <sz val="12"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -798,7 +1205,7 @@
         <sz val="12"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -959,7 +1366,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -978,7 +1385,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -16321,6 +16728,2101 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 143" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="1295400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="Picture 2" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1295400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4099" name="Picture 3" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="1485900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4100" name="Picture 4" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1676400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4101" name="Picture 5" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="1676400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4102" name="Picture 6" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1866900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4103" name="Picture 7" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="1866900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4104" name="Picture 8" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2057400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4105" name="Picture 9" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="2057400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4106" name="Picture 10" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2247900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4107" name="Picture 11" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="2247900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4108" name="Picture 12" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2438400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4109" name="Picture 13" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="2438400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4110" name="Picture 14" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2628900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4111" name="Picture 15" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="2628900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4112" name="Picture 16" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2819400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4113" name="Picture 17" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="2819400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4114" name="Picture 18" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3009900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4115" name="Picture 19" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="3009900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4116" name="Picture 20" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3200400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4117" name="Picture 21" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="3200400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4118" name="Picture 22" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3390900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4119" name="Picture 23" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="3390900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4120" name="Picture 24" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3581400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4121" name="Picture 25" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="3581400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4122" name="Picture 26" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3771900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4123" name="Picture 27" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="3771900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4124" name="Picture 28" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3962400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4125" name="Picture 29" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="3962400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4126" name="Picture 30" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4152900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4127" name="Picture 31" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="4152900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4128" name="Picture 32" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4343400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4129" name="Picture 33" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="4343400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4130" name="Picture 34" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4533900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4131" name="Picture 35" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="4533900"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4132" name="Picture 36" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4724400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4133" name="Picture 37" descr="//community.topcoder.com/i/clear.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10312400" y="4724400"/>
+          <a:ext cx="127000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -18853,21 +21355,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I18" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I18" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:I18"/>
   <sortState ref="A2:K22">
     <sortCondition descending="1" ref="E1:E22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="18"/>
-    <tableColumn id="2" name="Source" dataDxfId="17"/>
-    <tableColumn id="5" name="Topic" dataDxfId="16"/>
-    <tableColumn id="6" name="Div 1 Level" dataDxfId="15"/>
-    <tableColumn id="7" name="Div 1 Success Rate" dataDxfId="14"/>
-    <tableColumn id="16385" name="Done" dataDxfId="13"/>
-    <tableColumn id="3" name="Start" dataDxfId="12"/>
-    <tableColumn id="4" name="End" dataDxfId="11"/>
-    <tableColumn id="16388" name="Time" dataDxfId="10">
+    <tableColumn id="1" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" name="Source" dataDxfId="24"/>
+    <tableColumn id="5" name="Topic" dataDxfId="23"/>
+    <tableColumn id="6" name="Div 1 Level" dataDxfId="22"/>
+    <tableColumn id="7" name="Div 1 Success Rate" dataDxfId="21"/>
+    <tableColumn id="16385" name="Done" dataDxfId="20"/>
+    <tableColumn id="3" name="Start" dataDxfId="19"/>
+    <tableColumn id="4" name="End" dataDxfId="18"/>
+    <tableColumn id="16388" name="Time" dataDxfId="17">
       <calculatedColumnFormula>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18876,21 +21378,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I25" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I25" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:I25"/>
   <sortState ref="A2:K26">
     <sortCondition descending="1" ref="E1:E26"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" name="Source" dataDxfId="7"/>
-    <tableColumn id="3" name="Topic" dataDxfId="6"/>
+    <tableColumn id="1" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" name="Source" dataDxfId="14"/>
+    <tableColumn id="3" name="Topic" dataDxfId="13"/>
+    <tableColumn id="4" name="Div 1 Level" dataDxfId="12"/>
+    <tableColumn id="5" name="Div 1 Success Rate" dataDxfId="11"/>
+    <tableColumn id="8" name="Done" dataDxfId="10"/>
+    <tableColumn id="9" name="Start" dataDxfId="9"/>
+    <tableColumn id="10" name="End" dataDxfId="8"/>
+    <tableColumn id="11" name="Time" dataDxfId="7">
+      <calculatedColumnFormula>(HOUR(Table2[[#This Row],[End]])-HOUR(Table2[[#This Row],[Start]]))*60 + MINUTE(Table2[[#This Row],[End]]) - MINUTE(Table2[[#This Row],[Start]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I23" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:I23"/>
+  <sortState ref="A2:I23">
+    <sortCondition descending="1" ref="E1:E23"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Source"/>
+    <tableColumn id="3" name="Topic"/>
     <tableColumn id="4" name="Div 1 Level" dataDxfId="5"/>
-    <tableColumn id="5" name="Div 1 Success Rate" dataDxfId="4"/>
-    <tableColumn id="8" name="Done" dataDxfId="3"/>
-    <tableColumn id="9" name="Start" dataDxfId="2"/>
-    <tableColumn id="10" name="End" dataDxfId="1"/>
-    <tableColumn id="11" name="Time" dataDxfId="0">
+    <tableColumn id="5" name="Div 1 Success Rate" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="Done" dataDxfId="1"/>
+    <tableColumn id="7" name="Start" dataDxfId="3"/>
+    <tableColumn id="8" name="End" dataDxfId="2"/>
+    <tableColumn id="9" name="Time" dataDxfId="0">
       <calculatedColumnFormula>(HOUR(Table2[[#This Row],[End]])-HOUR(Table2[[#This Row],[Start]]))*60 + MINUTE(Table2[[#This Row],[End]]) - MINUTE(Table2[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19220,10 +21745,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34" customHeight="1" thickBot="1">
+      <c r="A1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" thickTop="1">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19231,50 +21915,50 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="21" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="21" customWidth="1"/>
-    <col min="6" max="9" width="8" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="19" customWidth="1"/>
+    <col min="6" max="9" width="8" style="19" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.33203125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="42" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="8">
+      <c r="I1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="7">
         <f>COUNTIF(Table1[Done], "Y")</f>
         <v>11</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="7">
         <f>COUNTIF(Table1[Div 1 Level], 1)</f>
         <v>17</v>
       </c>
@@ -19289,33 +21973,33 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="21">
         <v>0.99680000000000002</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="24">
+      <c r="F2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="22">
         <v>0.1875</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="22">
         <v>0.21180555555555555</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="19">
         <f>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</f>
         <v>35</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="25">
+      <c r="J2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="23">
         <f>K1/L1</f>
         <v>0.6470588235294118</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="18">
       <c r="A3" t="s">
@@ -19327,33 +22011,33 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>0.98550000000000004</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="24">
+      <c r="F3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="22">
         <v>0.97916666666666663</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="22">
         <v>0.98611111111111116</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <f>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</f>
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="26">
+      <c r="J3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="35">
         <f>AVERAGE(Table1[Time])</f>
         <v>25.636363636363637</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
@@ -19365,22 +22049,22 @@
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>1</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <v>0.98329999999999995</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="F4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="22">
         <v>0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <f>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</f>
         <v>30</v>
       </c>
@@ -19400,22 +22084,22 @@
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>0.97789999999999999</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="24">
+      <c r="F5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="22">
         <v>0.89374999999999993</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <v>0.92569444444444438</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <f>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</f>
         <v>46</v>
       </c>
@@ -19435,22 +22119,22 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="F6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="22">
         <v>0.92847222222222225</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="22">
         <v>0.94861111111111107</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <f>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</f>
         <v>29</v>
       </c>
@@ -19470,22 +22154,22 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>0.97109999999999996</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="24">
+      <c r="F7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="22">
         <v>0.92291666666666661</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="22">
         <v>0.93055555555555547</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <f>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</f>
         <v>11</v>
       </c>
@@ -19505,17 +22189,14 @@
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>0.96799999999999997</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -19532,17 +22213,14 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>0.9627</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -19559,22 +22237,22 @@
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>0.9536</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="24">
+      <c r="F10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="22">
         <v>0.91875000000000007</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <v>0.93263888888888891</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <f>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</f>
         <v>20</v>
       </c>
@@ -19594,22 +22272,22 @@
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>0.95340000000000003</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="24">
+      <c r="F11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="22">
         <v>0.89236111111111116</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="22">
         <v>0.9159722222222223</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="19">
         <f>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</f>
         <v>34</v>
       </c>
@@ -19624,17 +22302,14 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>0.94259999999999999</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
@@ -19646,17 +22321,14 @@
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>0.94020000000000004</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
@@ -19668,22 +22340,22 @@
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>0.93789999999999996</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="24">
+      <c r="F14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="22">
         <v>0.92361111111111116</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>0.94027777777777777</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="19">
         <f>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</f>
         <v>24</v>
       </c>
@@ -19698,17 +22370,14 @@
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>1</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>0.93459999999999999</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
@@ -19720,17 +22389,14 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>1</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>0.93310000000000004</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
@@ -19742,22 +22408,22 @@
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>1</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>0.93189999999999995</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="24">
+      <c r="F17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="22">
         <v>0.9375</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="22">
         <v>0.94652777777777775</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="19">
         <f>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</f>
         <v>13</v>
       </c>
@@ -19772,22 +22438,22 @@
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="17">
         <v>1</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>0.9032</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="24">
+      <c r="F18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="22">
         <v>0.94791666666666663</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="22">
         <v>0.96875</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="19">
         <f>(HOUR(Table1[[#This Row],[End]])-HOUR(Table1[[#This Row],[Start]]))*60 + MINUTE(Table1[[#This Row],[End]]) - MINUTE(Table1[[#This Row],[Start]])</f>
         <v>30</v>
       </c>
@@ -19807,12 +22473,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19820,691 +22486,698 @@
     <col min="1" max="1" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="8" customWidth="1"/>
-    <col min="7" max="9" width="8.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="7" customWidth="1"/>
+    <col min="7" max="9" width="8.6640625" style="20" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="8">
+      <c r="I1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="7">
         <f>COUNTIF(Table2[Done], "Y")</f>
         <v>6</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="7">
         <f>COUNTIF(Table2[Div 1 Level], 1)</f>
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <v>1</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="F2" s="24"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="23">
         <f>K1/L1</f>
         <v>0.25</v>
       </c>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="18">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="14">
+      <c r="F3" s="24"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="7">
         <f>AVERAGE(Table2[Time])</f>
         <v>50</v>
       </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="F4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="22">
         <v>0.74722222222222223</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <v>0.79861111111111116</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <f>(HOUR(Table2[[#This Row],[End]])-HOUR(Table2[[#This Row],[Start]]))*60 + MINUTE(Table2[[#This Row],[End]]) - MINUTE(Table2[[#This Row],[Start]])</f>
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="19">
+        <v>59</v>
+      </c>
+      <c r="D5" s="17">
         <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="24">
+      <c r="F5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="22">
         <v>0.86319444444444438</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <v>0.93125000000000002</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <f>(HOUR(Table2[[#This Row],[End]])-HOUR(Table2[[#This Row],[Start]]))*60 + MINUTE(Table2[[#This Row],[End]]) - MINUTE(Table2[[#This Row],[Start]])</f>
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="29"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="19">
+        <v>104</v>
+      </c>
+      <c r="D7" s="17">
         <v>1</v>
       </c>
       <c r="E7" s="3">
         <v>0.96640000000000004</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="28">
+      <c r="F7" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="25">
         <v>0.59375</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="22">
         <v>0.60833333333333328</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <f>(HOUR(Table2[[#This Row],[End]])-HOUR(Table2[[#This Row],[Start]]))*60 + MINUTE(Table2[[#This Row],[End]]) - MINUTE(Table2[[#This Row],[Start]])</f>
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="3">
         <v>0.96460000000000001</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="21"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="19">
+        <v>59</v>
+      </c>
+      <c r="D9" s="17">
         <v>1</v>
       </c>
       <c r="E9" s="3">
         <v>0.94820000000000004</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="21"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="19">
+        <v>89</v>
+      </c>
+      <c r="D10" s="17">
         <v>1</v>
       </c>
       <c r="E10" s="3">
         <v>0.94679999999999997</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="28">
+      <c r="F10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="25">
         <v>0.87916666666666676</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <v>0.8930555555555556</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <f>(HOUR(Table2[[#This Row],[End]])-HOUR(Table2[[#This Row],[Start]]))*60 + MINUTE(Table2[[#This Row],[End]]) - MINUTE(Table2[[#This Row],[Start]])</f>
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="19">
+        <v>64</v>
+      </c>
+      <c r="D11" s="17">
         <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>0.94120000000000004</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="21"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="19">
+        <v>104</v>
+      </c>
+      <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="E12" s="3">
         <v>0.94120000000000004</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="28">
+      <c r="F12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="25">
         <v>0.62847222222222221</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <v>0.65208333333333335</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <f>(HOUR(Table2[[#This Row],[End]])-HOUR(Table2[[#This Row],[Start]]))*60 + MINUTE(Table2[[#This Row],[End]]) - MINUTE(Table2[[#This Row],[Start]])</f>
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
         <v>76</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>1</v>
       </c>
       <c r="E13" s="3">
         <v>0.9375</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="21"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="19">
+        <v>101</v>
+      </c>
+      <c r="D14" s="17">
         <v>1</v>
       </c>
       <c r="E14" s="3">
         <v>0.93589999999999995</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="29"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="19">
+        <v>104</v>
+      </c>
+      <c r="D15" s="17">
         <v>1</v>
       </c>
       <c r="E15" s="3">
         <v>0.93079999999999996</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="28">
+      <c r="F15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="25">
         <v>0.78125</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="22">
         <v>0.81805555555555554</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="19">
         <f>(HOUR(Table2[[#This Row],[End]])-HOUR(Table2[[#This Row],[Start]]))*60 + MINUTE(Table2[[#This Row],[End]]) - MINUTE(Table2[[#This Row],[Start]])</f>
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
         <v>79</v>
       </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="19">
+        <v>64</v>
+      </c>
+      <c r="D16" s="17">
         <v>1</v>
       </c>
       <c r="E16" s="3">
         <v>0.92859999999999998</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="21"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="19">
+        <v>104</v>
+      </c>
+      <c r="D17" s="17">
         <v>1</v>
       </c>
       <c r="E17" s="3">
         <v>0.92859999999999998</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="29"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25">
+        <v>0.98125000000000007</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="26"/>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="19">
+        <v>95</v>
+      </c>
+      <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="3">
         <v>0.92390000000000005</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="29"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="26"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="19">
+        <v>101</v>
+      </c>
+      <c r="D19" s="17">
         <v>1</v>
       </c>
       <c r="E19" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="29"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="19">
+        <v>89</v>
+      </c>
+      <c r="D20" s="17">
         <v>1</v>
       </c>
       <c r="E20" s="3">
         <v>0.91890000000000005</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="29"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="26"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="19">
+        <v>59</v>
+      </c>
+      <c r="D21" s="17">
         <v>1</v>
       </c>
       <c r="E21" s="3">
         <v>0.91669999999999996</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="21"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="19">
+        <v>104</v>
+      </c>
+      <c r="D22" s="17">
         <v>1</v>
       </c>
       <c r="E22" s="3">
         <v>0.91200000000000003</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="29"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="26"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="19">
+        <v>59</v>
+      </c>
+      <c r="D23" s="17">
         <v>1</v>
       </c>
       <c r="E23" s="3">
         <v>0.91020000000000001</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="21"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
         <v>85</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="19">
+      <c r="D24" s="17">
         <v>1</v>
       </c>
       <c r="E24" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="21"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="20">
+      <c r="C25" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="18">
         <v>1</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="13"/>
+    <row r="26" spans="1:10">
+      <c r="A26" s="12"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="16"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="13"/>
+    <row r="27" spans="1:10">
+      <c r="A27" s="12"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="16"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:10">
+      <c r="A28" s="12"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="16"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="13"/>
+    <row r="29" spans="1:10">
+      <c r="A29" s="12"/>
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="16"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="13"/>
+    <row r="30" spans="1:10">
+      <c r="A30" s="12"/>
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="16"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="13"/>
+    <row r="31" spans="1:10">
+      <c r="A31" s="12"/>
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="16"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="13"/>
+    <row r="32" spans="1:10">
+      <c r="A32" s="12"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="16"/>
       <c r="E32"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="13"/>
+      <c r="A33" s="12"/>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33" s="18"/>
+      <c r="D33" s="16"/>
       <c r="E33"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="13"/>
+      <c r="A34" s="12"/>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="16"/>
       <c r="E34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -20519,7 +23192,588 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="34" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="33">
+        <f>COUNTIF(Table2[Done], "Y")</f>
+        <v>6</v>
+      </c>
+      <c r="L1" s="33">
+        <f>COUNTIF(Table2[Div 1 Level], 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="36">
+        <v>1</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="23">
+        <f>K1/L1</f>
+        <v>0.25</v>
+      </c>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" ht="18">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="36">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="33">
+        <f>AVERAGE(Table2[Time])</f>
+        <v>50</v>
+      </c>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I12" s="19">
+        <f>(HOUR(Table2[[#This Row],[End]])-HOUR(Table2[[#This Row],[Start]]))*60 + MINUTE(Table2[[#This Row],[End]]) - MINUTE(Table2[[#This Row],[Start]])</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="20">
+        <v>1</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0.9153</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+      <c r="E22" s="36">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="E23" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="I24" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H25"/>
   <sheetViews>
@@ -20534,13 +23788,13 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -20550,17 +23804,17 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -20574,17 +23828,17 @@
       <c r="G3" s="3">
         <v>0.93200000000000005</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -20598,17 +23852,17 @@
       <c r="G4" s="3">
         <v>0.84509999999999996</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -20618,17 +23872,17 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -20642,17 +23896,17 @@
       <c r="G6" s="3">
         <v>0.87790000000000001</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -20666,17 +23920,17 @@
       <c r="G7" s="3">
         <v>0.88790000000000002</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -20686,17 +23940,17 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -20710,17 +23964,17 @@
       <c r="G9" s="3">
         <v>0.82279999999999998</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -20734,17 +23988,17 @@
       <c r="G10" s="3">
         <v>0.84140000000000004</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -20754,17 +24008,17 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -20774,17 +24028,17 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -20794,17 +24048,17 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -20818,17 +24072,17 @@
       <c r="G14" s="3">
         <v>0.78720000000000001</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -20838,17 +24092,17 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -20858,17 +24112,17 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -20878,17 +24132,17 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -20898,17 +24152,17 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -20918,17 +24172,17 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -20938,17 +24192,17 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -20962,17 +24216,17 @@
       <c r="G21" s="3">
         <v>0.78029999999999999</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -20982,17 +24236,17 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -21006,17 +24260,17 @@
       <c r="G23" s="3">
         <v>0.66210000000000002</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -21026,17 +24280,17 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -21061,4 +24315,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>